--- a/team_specific_matrix/Colorado St._A.xlsx
+++ b/team_specific_matrix/Colorado St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1460674157303371</v>
+        <v>0.1508620689655172</v>
       </c>
       <c r="C2">
-        <v>0.6235955056179775</v>
+        <v>0.6293103448275862</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.005617977528089887</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.151685393258427</v>
+        <v>0.146551724137931</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07303370786516854</v>
+        <v>0.06465517241379311</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.007462686567164179</v>
+        <v>0.005917159763313609</v>
       </c>
       <c r="C3">
-        <v>0.01492537313432836</v>
+        <v>0.01183431952662722</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04477611940298507</v>
+        <v>0.03550295857988166</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.746268656716418</v>
+        <v>0.757396449704142</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1865671641791045</v>
+        <v>0.1893491124260355</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02631578947368421</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6578947368421053</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3157894736842105</v>
+        <v>0.2653061224489796</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03125</v>
+        <v>0.02463054187192118</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0375</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.225</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01875</v>
+        <v>0.02463054187192118</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1875</v>
+        <v>0.187192118226601</v>
       </c>
       <c r="R6">
-        <v>0.075</v>
+        <v>0.07881773399014778</v>
       </c>
       <c r="S6">
-        <v>0.375</v>
+        <v>0.3399014778325123</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.06451612903225806</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0564516129032258</v>
+        <v>0.05844155844155844</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1129032258064516</v>
+        <v>0.09740259740259741</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.08870967741935484</v>
+        <v>0.07792207792207792</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01612903225806452</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2096774193548387</v>
+        <v>0.2337662337662338</v>
       </c>
       <c r="R7">
-        <v>0.08870967741935484</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="S7">
-        <v>0.3629032258064516</v>
+        <v>0.3506493506493507</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0847953216374269</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02631578947368421</v>
+        <v>0.02314814814814815</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07602339181286549</v>
+        <v>0.06944444444444445</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1198830409356725</v>
+        <v>0.1087962962962963</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01754385964912281</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.2046783625730994</v>
+        <v>0.1990740740740741</v>
       </c>
       <c r="R8">
-        <v>0.1052631578947368</v>
+        <v>0.1041666666666667</v>
       </c>
       <c r="S8">
-        <v>0.3654970760233918</v>
+        <v>0.3726851851851852</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1788617886178862</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01626016260162602</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="E9">
-        <v>0.008130081300813009</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="F9">
-        <v>0.08943089430894309</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07317073170731707</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01626016260162602</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2439024390243902</v>
+        <v>0.2466666666666667</v>
       </c>
       <c r="R9">
-        <v>0.03252032520325204</v>
+        <v>0.04</v>
       </c>
       <c r="S9">
-        <v>0.3414634146341464</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08324205914567361</v>
+        <v>0.08141592920353982</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01533406352683461</v>
+        <v>0.01946902654867257</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07338444687842278</v>
+        <v>0.07256637168141593</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1150054764512596</v>
+        <v>0.09911504424778761</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02190580503833516</v>
+        <v>0.02300884955752212</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2300109529025192</v>
+        <v>0.2292035398230088</v>
       </c>
       <c r="R10">
-        <v>0.1018619934282585</v>
+        <v>0.1053097345132743</v>
       </c>
       <c r="S10">
-        <v>0.3592552026286966</v>
+        <v>0.3699115044247788</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1182795698924731</v>
+        <v>0.1297071129707113</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1290322580645161</v>
+        <v>0.1213389121338912</v>
       </c>
       <c r="K11">
-        <v>0.1666666666666667</v>
+        <v>0.1757322175732217</v>
       </c>
       <c r="L11">
-        <v>0.5752688172043011</v>
+        <v>0.5648535564853556</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01075268817204301</v>
+        <v>0.008368200836820083</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7767857142857143</v>
+        <v>0.7482014388489209</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1339285714285714</v>
+        <v>0.1798561151079137</v>
       </c>
       <c r="K12">
-        <v>0.008928571428571428</v>
+        <v>0.007194244604316547</v>
       </c>
       <c r="L12">
-        <v>0.04464285714285714</v>
+        <v>0.03597122302158273</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03571428571428571</v>
+        <v>0.02877697841726619</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7727272727272727</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1818181818181818</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04545454545454546</v>
+        <v>0.06896551724137931</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01587301587301587</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.201058201058201</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="I15">
-        <v>0.0582010582010582</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="J15">
-        <v>0.328042328042328</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="K15">
-        <v>0.04761904761904762</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005291005291005291</v>
+        <v>0.008658008658008658</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06349206349206349</v>
+        <v>0.05194805194805195</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2804232804232804</v>
+        <v>0.2943722943722944</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02777777777777778</v>
+        <v>0.02645502645502645</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.125</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I16">
-        <v>0.09722222222222222</v>
+        <v>0.08994708994708994</v>
       </c>
       <c r="J16">
-        <v>0.4097222222222222</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="K16">
-        <v>0.1180555555555556</v>
+        <v>0.1058201058201058</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01388888888888889</v>
+        <v>0.02116402116402116</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04861111111111111</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1597222222222222</v>
+        <v>0.1534391534391534</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.016</v>
+        <v>0.01939655172413793</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1973333333333333</v>
+        <v>0.2025862068965517</v>
       </c>
       <c r="I17">
-        <v>0.07199999999999999</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="J17">
-        <v>0.4293333333333333</v>
+        <v>0.4224137931034483</v>
       </c>
       <c r="K17">
-        <v>0.08533333333333333</v>
+        <v>0.08836206896551724</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02133333333333333</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.08799999999999999</v>
+        <v>0.09482758620689655</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09066666666666667</v>
+        <v>0.08620689655172414</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03125</v>
+        <v>0.02955665024630542</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2125</v>
+        <v>0.2167487684729064</v>
       </c>
       <c r="I18">
-        <v>0.05625</v>
+        <v>0.0541871921182266</v>
       </c>
       <c r="J18">
-        <v>0.41875</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="K18">
-        <v>0.075</v>
+        <v>0.08866995073891626</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0125</v>
+        <v>0.009852216748768473</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05</v>
+        <v>0.04926108374384237</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.14375</v>
+        <v>0.1379310344827586</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.007058823529411765</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2105882352941177</v>
+        <v>0.2091503267973856</v>
       </c>
       <c r="I19">
-        <v>0.07411764705882352</v>
+        <v>0.0718954248366013</v>
       </c>
       <c r="J19">
-        <v>0.3952941176470588</v>
+        <v>0.4014939309056956</v>
       </c>
       <c r="K19">
-        <v>0.1</v>
+        <v>0.09803921568627451</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01058823529411765</v>
+        <v>0.0130718954248366</v>
       </c>
       <c r="N19">
-        <v>0.003529411764705882</v>
+        <v>0.002801120448179272</v>
       </c>
       <c r="O19">
-        <v>0.08941176470588236</v>
+        <v>0.08123249299719888</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1094117647058823</v>
+        <v>0.1092436974789916</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Colorado St._A.xlsx
+++ b/team_specific_matrix/Colorado St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1508620689655172</v>
+        <v>0.1616541353383459</v>
       </c>
       <c r="C2">
-        <v>0.6293103448275862</v>
+        <v>0.6165413533834586</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008620689655172414</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.146551724137931</v>
+        <v>0.1466165413533835</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06465517241379311</v>
+        <v>0.06766917293233082</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005917159763313609</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="C3">
-        <v>0.01183431952662722</v>
+        <v>0.0106951871657754</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03550295857988166</v>
+        <v>0.0427807486631016</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.757396449704142</v>
+        <v>0.7593582887700535</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1893491124260355</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02040816326530612</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7142857142857143</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2653061224489796</v>
+        <v>0.2363636363636364</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06896551724137931</v>
+        <v>0.06986899563318777</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.02463054187192118</v>
+        <v>0.02620087336244541</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03448275862068965</v>
+        <v>0.04366812227074236</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2413793103448276</v>
+        <v>0.240174672489083</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02463054187192118</v>
+        <v>0.02183406113537118</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.187192118226601</v>
+        <v>0.1834061135371179</v>
       </c>
       <c r="R6">
-        <v>0.07881773399014778</v>
+        <v>0.07423580786026202</v>
       </c>
       <c r="S6">
-        <v>0.3399014778325123</v>
+        <v>0.3406113537117904</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07792207792207792</v>
+        <v>0.09625668449197861</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05844155844155844</v>
+        <v>0.0481283422459893</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.09740259740259741</v>
+        <v>0.0855614973262032</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07792207792207792</v>
+        <v>0.08021390374331551</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01298701298701299</v>
+        <v>0.0106951871657754</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2337662337662338</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="R7">
         <v>0.09090909090909091</v>
       </c>
       <c r="S7">
-        <v>0.3506493506493507</v>
+        <v>0.3529411764705883</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1041666666666667</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02314814814814815</v>
+        <v>0.02132196162046908</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06944444444444445</v>
+        <v>0.07036247334754797</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1087962962962963</v>
+        <v>0.1023454157782516</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01851851851851852</v>
+        <v>0.01918976545842218</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1990740740740741</v>
+        <v>0.2004264392324094</v>
       </c>
       <c r="R8">
-        <v>0.1041666666666667</v>
+        <v>0.1023454157782516</v>
       </c>
       <c r="S8">
-        <v>0.3726851851851852</v>
+        <v>0.3795309168443497</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1666666666666667</v>
+        <v>0.1488095238095238</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01333333333333333</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="E9">
-        <v>0.006666666666666667</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="F9">
-        <v>0.08666666666666667</v>
+        <v>0.07738095238095238</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.06666666666666667</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01333333333333333</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2466666666666667</v>
+        <v>0.2559523809523809</v>
       </c>
       <c r="R9">
-        <v>0.04</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="S9">
-        <v>0.36</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.08141592920353982</v>
+        <v>0.0853950518754988</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01946902654867257</v>
+        <v>0.02154828411811652</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07256637168141593</v>
+        <v>0.07501995211492418</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09911504424778761</v>
+        <v>0.09976057462090981</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02300884955752212</v>
+        <v>0.0223463687150838</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2292035398230088</v>
+        <v>0.2250598563447725</v>
       </c>
       <c r="R10">
-        <v>0.1053097345132743</v>
+        <v>0.1021548284118117</v>
       </c>
       <c r="S10">
-        <v>0.3699115044247788</v>
+        <v>0.3687150837988827</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1297071129707113</v>
+        <v>0.1293706293706294</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1213389121338912</v>
+        <v>0.1118881118881119</v>
       </c>
       <c r="K11">
-        <v>0.1757322175732217</v>
+        <v>0.1783216783216783</v>
       </c>
       <c r="L11">
-        <v>0.5648535564853556</v>
+        <v>0.5734265734265734</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.008368200836820083</v>
+        <v>0.006993006993006993</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7482014388489209</v>
+        <v>0.7529411764705882</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1798561151079137</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="K12">
-        <v>0.007194244604316547</v>
+        <v>0.005882352941176471</v>
       </c>
       <c r="L12">
-        <v>0.03597122302158273</v>
+        <v>0.04117647058823529</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02877697841726619</v>
+        <v>0.02352941176470588</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7586206896551724</v>
+        <v>0.7741935483870968</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1724137931034483</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06896551724137931</v>
+        <v>0.06451612903225806</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01298701298701299</v>
+        <v>0.012</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1904761904761905</v>
+        <v>0.192</v>
       </c>
       <c r="I15">
-        <v>0.06493506493506493</v>
+        <v>0.06</v>
       </c>
       <c r="J15">
-        <v>0.3246753246753247</v>
+        <v>0.324</v>
       </c>
       <c r="K15">
-        <v>0.05194805194805195</v>
+        <v>0.06</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.008658008658008658</v>
+        <v>0.008</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05194805194805195</v>
+        <v>0.052</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2943722943722944</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02645502645502645</v>
+        <v>0.02336448598130841</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1428571428571428</v>
+        <v>0.1542056074766355</v>
       </c>
       <c r="I16">
-        <v>0.08994708994708994</v>
+        <v>0.07943925233644859</v>
       </c>
       <c r="J16">
-        <v>0.3968253968253968</v>
+        <v>0.3831775700934579</v>
       </c>
       <c r="K16">
-        <v>0.1058201058201058</v>
+        <v>0.1355140186915888</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02116402116402116</v>
+        <v>0.02336448598130841</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06349206349206349</v>
+        <v>0.06074766355140187</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1534391534391534</v>
+        <v>0.1401869158878505</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01939655172413793</v>
+        <v>0.017578125</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2025862068965517</v>
+        <v>0.197265625</v>
       </c>
       <c r="I17">
-        <v>0.06896551724137931</v>
+        <v>0.068359375</v>
       </c>
       <c r="J17">
-        <v>0.4224137931034483</v>
+        <v>0.423828125</v>
       </c>
       <c r="K17">
-        <v>0.08836206896551724</v>
+        <v>0.087890625</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01724137931034483</v>
+        <v>0.017578125</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.00390625</v>
       </c>
       <c r="O17">
-        <v>0.09482758620689655</v>
+        <v>0.08984375</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08620689655172414</v>
+        <v>0.09375</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02955665024630542</v>
+        <v>0.02727272727272727</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2167487684729064</v>
+        <v>0.2090909090909091</v>
       </c>
       <c r="I18">
-        <v>0.0541871921182266</v>
+        <v>0.05</v>
       </c>
       <c r="J18">
-        <v>0.4137931034482759</v>
+        <v>0.4136363636363636</v>
       </c>
       <c r="K18">
-        <v>0.08866995073891626</v>
+        <v>0.1045454545454545</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.009852216748768473</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04926108374384237</v>
+        <v>0.05</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1379310344827586</v>
+        <v>0.1363636363636364</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0130718954248366</v>
+        <v>0.01423785594639866</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2091503267973856</v>
+        <v>0.202680067001675</v>
       </c>
       <c r="I19">
-        <v>0.0718954248366013</v>
+        <v>0.07705192629815745</v>
       </c>
       <c r="J19">
-        <v>0.4014939309056956</v>
+        <v>0.4003350083752094</v>
       </c>
       <c r="K19">
-        <v>0.09803921568627451</v>
+        <v>0.102177554438861</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0130718954248366</v>
+        <v>0.01172529313232831</v>
       </c>
       <c r="N19">
-        <v>0.002801120448179272</v>
+        <v>0.002512562814070352</v>
       </c>
       <c r="O19">
-        <v>0.08123249299719888</v>
+        <v>0.08040201005025126</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1092436974789916</v>
+        <v>0.1088777219430486</v>
       </c>
     </row>
   </sheetData>
